--- a/manipulator_x_description/doc/robotis_manipulator_x_4dof_mass_property.xlsx
+++ b/manipulator_x_description/doc/robotis_manipulator_x_4dof_mass_property.xlsx
@@ -10,7 +10,8 @@
   <sheets>
     <sheet name="X" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="H" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="4dof" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="4dof" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="18">
   <si>
     <t xml:space="preserve">ROS</t>
   </si>
@@ -280,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -694,6 +695,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2419,7 +2432,786 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.89068825910931"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="Q2" s="2" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="88" t="n">
+        <v>0.087017668</v>
+      </c>
+      <c r="D4" s="89" t="n">
+        <v>0.00025237194</v>
+      </c>
+      <c r="E4" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="91" t="n">
+        <v>0.01780053</v>
+      </c>
+      <c r="G4" s="92" t="n">
+        <v>1.3782605E-005</v>
+      </c>
+      <c r="H4" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="93" t="n">
+        <v>-2.4707024E-007</v>
+      </c>
+      <c r="J4" s="92" t="n">
+        <v>2.3811821E-005</v>
+      </c>
+      <c r="K4" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="92" t="n">
+        <v>2.1074952E-005</v>
+      </c>
+      <c r="M4" s="94" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N4" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="96" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="Q4" s="97" t="n">
+        <v>1E-006</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="88" t="n">
+        <v>0.11727289</v>
+      </c>
+      <c r="D5" s="89" t="n">
+        <v>1.7511648E-005</v>
+      </c>
+      <c r="E5" s="98" t="n">
+        <v>-0.00045441359</v>
+      </c>
+      <c r="F5" s="99" t="n">
+        <v>0.032931003</v>
+      </c>
+      <c r="G5" s="92" t="n">
+        <v>4.1102361E-005</v>
+      </c>
+      <c r="H5" s="100" t="n">
+        <f aca="false">(-0.00093740373)*0.000001</f>
+        <v>-9.3740373E-010</v>
+      </c>
+      <c r="I5" s="100" t="n">
+        <v>-6.5570834E-007</v>
+      </c>
+      <c r="J5" s="92" t="n">
+        <v>4.0774296E-005</v>
+      </c>
+      <c r="K5" s="100" t="n">
+        <v>-6.7800033E-008</v>
+      </c>
+      <c r="L5" s="92" t="n">
+        <v>2.3429322E-005</v>
+      </c>
+      <c r="M5" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="103" t="n">
+        <v>0.04235</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="88" t="n">
+        <v>0.15629493</v>
+      </c>
+      <c r="D6" s="89" t="n">
+        <v>0.0096607151</v>
+      </c>
+      <c r="E6" s="98" t="n">
+        <v>-0.00033594492</v>
+      </c>
+      <c r="F6" s="99" t="n">
+        <v>0.11795283</v>
+      </c>
+      <c r="G6" s="92" t="n">
+        <v>0.00041624093</v>
+      </c>
+      <c r="H6" s="100" t="n">
+        <v>1.6547571E-007</v>
+      </c>
+      <c r="I6" s="100" t="n">
+        <v>-4.4923085E-005</v>
+      </c>
+      <c r="J6" s="92" t="n">
+        <v>0.00042757767</v>
+      </c>
+      <c r="K6" s="100" t="n">
+        <v>1.5852906E-006</v>
+      </c>
+      <c r="L6" s="92" t="n">
+        <v>5.3166647E-005</v>
+      </c>
+      <c r="M6" s="101" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="N6" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="103" t="n">
+        <v>0.14815</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="88" t="n">
+        <v>0.14868014</v>
+      </c>
+      <c r="D7" s="89" t="n">
+        <v>0.11076383</v>
+      </c>
+      <c r="E7" s="98" t="n">
+        <v>-0.00035314664</v>
+      </c>
+      <c r="F7" s="99" t="n">
+        <v>0.00049985695</v>
+      </c>
+      <c r="G7" s="92" t="n">
+        <v>3.0830029E-005</v>
+      </c>
+      <c r="H7" s="100" t="n">
+        <v>1.4725757E-006</v>
+      </c>
+      <c r="I7" s="100" t="n">
+        <v>-2.2198293E-006</v>
+      </c>
+      <c r="J7" s="92" t="n">
+        <v>0.00036703309</v>
+      </c>
+      <c r="K7" s="100" t="n">
+        <v>-2.6238283E-008</v>
+      </c>
+      <c r="L7" s="92" t="n">
+        <v>0.00037667273</v>
+      </c>
+      <c r="M7" s="101" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N7" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="88" t="n">
+        <v>0.12361916</v>
+      </c>
+      <c r="D8" s="89" t="n">
+        <v>0.037669107</v>
+      </c>
+      <c r="E8" s="98" t="n">
+        <v>0.0026173217</v>
+      </c>
+      <c r="F8" s="99" t="n">
+        <v>-0.00043108255</v>
+      </c>
+      <c r="G8" s="92" t="n">
+        <v>4.8220143E-005</v>
+      </c>
+      <c r="H8" s="100" t="n">
+        <v>-1.4821525E-006</v>
+      </c>
+      <c r="I8" s="100" t="n">
+        <v>2.4411512E-007</v>
+      </c>
+      <c r="J8" s="92" t="n">
+        <v>4.3415813E-005</v>
+      </c>
+      <c r="K8" s="100" t="n">
+        <v>1.3542481E-007</v>
+      </c>
+      <c r="L8" s="92" t="n">
+        <v>5.7835886E-005</v>
+      </c>
+      <c r="M8" s="31" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="N8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+    </row>
+    <row r="10" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="C10" s="88" t="n">
+        <v>0.20501245</v>
+      </c>
+      <c r="D10" s="104" t="n">
+        <v>0.050707401</v>
+      </c>
+      <c r="E10" s="105" t="n">
+        <v>0.001770198</v>
+      </c>
+      <c r="F10" s="105" t="n">
+        <v>-0.00039403658</v>
+      </c>
+      <c r="G10" s="92" t="n">
+        <v>0.00013083162</v>
+      </c>
+      <c r="H10" s="106" t="n">
+        <v>3.1084359E-006</v>
+      </c>
+      <c r="I10" s="106" t="n">
+        <v>2.4657265E-007</v>
+      </c>
+      <c r="J10" s="92" t="n">
+        <v>0.00018108839</v>
+      </c>
+      <c r="K10" s="106" t="n">
+        <v>4.5146412E-007</v>
+      </c>
+      <c r="L10" s="92" t="n">
+        <v>0.00023274634</v>
+      </c>
+      <c r="M10" s="44" t="n">
+        <v>0.15418</v>
+      </c>
+      <c r="N10" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
+        <f aca="false">SUM(C4:C8)</f>
+        <v>0.632884788</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="15" t="n">
+        <f aca="false">D4-M4</f>
+        <v>-0.01174762806</v>
+      </c>
+      <c r="E16" s="16" t="n">
+        <f aca="false">E4-N4</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <f aca="false">F4-O4</f>
+        <v>-0.01619947</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="15" t="n">
+        <f aca="false">D5-M5</f>
+        <v>1.7511648E-005</v>
+      </c>
+      <c r="E17" s="16" t="n">
+        <f aca="false">E5-N5</f>
+        <v>-0.00045441359</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <f aca="false">F5-O5</f>
+        <v>-0.009418997</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="33"/>
+    </row>
+    <row r="18" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="15" t="n">
+        <f aca="false">D6-M6</f>
+        <v>-0.0143392849</v>
+      </c>
+      <c r="E18" s="16" t="n">
+        <f aca="false">E6-N6</f>
+        <v>-0.00033594492</v>
+      </c>
+      <c r="F18" s="17" t="n">
+        <f aca="false">F6-O6</f>
+        <v>-0.03019717</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="15" t="n">
+        <f aca="false">D7-M7</f>
+        <v>-0.03923617</v>
+      </c>
+      <c r="E19" s="16" t="n">
+        <f aca="false">E7-N7</f>
+        <v>-0.00035314664</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <f aca="false">F7-O7</f>
+        <v>0.00049985695</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
+    </row>
+    <row r="20" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="15" t="n">
+        <f aca="false">D8-M8</f>
+        <v>-0.018830893</v>
+      </c>
+      <c r="E20" s="16" t="n">
+        <f aca="false">E8-N8</f>
+        <v>0.0026173217</v>
+      </c>
+      <c r="F20" s="17" t="n">
+        <f aca="false">F8-O8</f>
+        <v>-0.00043108255</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
+    </row>
+    <row r="22" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D22" s="15" t="n">
+        <f aca="false">D10-M10</f>
+        <v>-0.103472599</v>
+      </c>
+      <c r="E22" s="16" t="n">
+        <f aca="false">E10-N10</f>
+        <v>0.001770198</v>
+      </c>
+      <c r="F22" s="17" t="n">
+        <f aca="false">F10-O10</f>
+        <v>-0.00039403658</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+    </row>
+    <row r="26" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+    </row>
+    <row r="27" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+    </row>
+    <row r="28" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2.9379703</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.14611973</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>7.5916388E-005</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0.049617725</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0.031630705</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>-3.8877478E-005</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0.0041142669</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0.069407198</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>-4.0562593E-005</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>0.063758089</v>
+      </c>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:O14"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
